--- a/data/trans_camb/P1402-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1402-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.16769929990884</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.009456517088082</v>
+        <v>7.009456517088084</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.387112627050953</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4315562706661373</v>
+        <v>-0.6230031459974553</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2185069144939799</v>
+        <v>0.06516500783849319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.184401807077473</v>
+        <v>3.543275870352435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.231001225377744</v>
+        <v>-1.438149640681051</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.05268222170064</v>
+        <v>-2.186884665257026</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.1809119926622672</v>
+        <v>0.3739089039234508</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.139612129722631</v>
+        <v>0.0326079765707008</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.3875797728794336</v>
+        <v>-0.259786691063929</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.991816924143469</v>
+        <v>2.765255460108599</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.622361832351086</v>
+        <v>7.250024571495136</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.306232209449188</v>
+        <v>7.365725102791942</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.10591328946795</v>
+        <v>11.24367165799234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.408299991525911</v>
+        <v>5.976653387255028</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.142646554599377</v>
+        <v>5.220308477412881</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.76136410126333</v>
+        <v>6.899075077211511</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.886359945950526</v>
+        <v>5.632650431545662</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.004617092658186</v>
+        <v>5.138217796127218</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.928756351160351</v>
+        <v>7.736033471391959</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.113333856907418</v>
+        <v>-0.1444243564399502</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06368094464108397</v>
+        <v>-0.05616227438850434</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4623556717845898</v>
+        <v>0.4839787295799831</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2664569902490114</v>
+        <v>-0.3004374500253242</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3917637592489188</v>
+        <v>-0.4114355297349642</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06527388851651419</v>
+        <v>0.04908502134340027</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01812736632237442</v>
+        <v>-0.01759270159253269</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1163413142090275</v>
+        <v>-0.07169709307852264</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5377857770353385</v>
+        <v>0.4365572438845338</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.037355377393682</v>
+        <v>3.176469141772577</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.163539318497576</v>
+        <v>3.245928418702606</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.459478995939421</v>
+        <v>4.367564385865998</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.958197859592365</v>
+        <v>2.537612946090458</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.142682683175987</v>
+        <v>2.503130598592175</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.963985427798872</v>
+        <v>3.168166753750716</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.168890885225776</v>
+        <v>1.829531548310972</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.762280058331496</v>
+        <v>1.768378450521397</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.802631290195745</v>
+        <v>2.583941638262186</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.109056215506222</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.3842826491706641</v>
+        <v>-0.3842826491706627</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.1344493004421</v>
@@ -878,7 +878,7 @@
         <v>2.283267586983383</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.17355720417729</v>
+        <v>1.173557204177292</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.314780971210768</v>
+        <v>-0.9766368923737544</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9530066969861124</v>
+        <v>-0.4522896285479363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5051645918019732</v>
+        <v>-0.4100042571311834</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.119955039012419</v>
+        <v>-1.176351393700554</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.403737276672567</v>
+        <v>-1.650622483353291</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.986338553554335</v>
+        <v>-3.283376396811672</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2870761357968724</v>
+        <v>-0.3877116692621491</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.05375931140935617</v>
+        <v>-0.1757784610524486</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.058044026341584</v>
+        <v>-1.057633251376034</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.916855855898674</v>
+        <v>5.369129119199259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.334024304296501</v>
+        <v>5.629118971240212</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.099058913362405</v>
+        <v>6.014749924666398</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.579805033640968</v>
+        <v>6.395937880743801</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.110314011417964</v>
+        <v>5.676191895497619</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.371028849762304</v>
+        <v>2.814320253818683</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.385757064506382</v>
+        <v>4.599174715191703</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.598604280809963</v>
+        <v>4.531282325618474</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.452043244034968</v>
+        <v>3.59120307610295</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.243525630529019</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.04437182553627941</v>
+        <v>-0.04437182553627925</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3068413791330405</v>
@@ -983,7 +983,7 @@
         <v>0.3282350043051565</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1687067061966241</v>
+        <v>0.1687067061966243</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2301492007396823</v>
+        <v>-0.1635567912226691</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1458408142520077</v>
+        <v>-0.09303806259349612</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09415237907924448</v>
+        <v>-0.0744155091526032</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1165406715376651</v>
+        <v>-0.1122594808584783</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1433711399922517</v>
+        <v>-0.1580388369022404</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3681439992738707</v>
+        <v>-0.3187691367715351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03255172977776005</v>
+        <v>-0.04624353783645977</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01466967416681196</v>
+        <v>-0.02235263109200671</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1405155303428743</v>
+        <v>-0.1271631113308972</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.265266397317413</v>
+        <v>1.479986412389214</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.356376541393072</v>
+        <v>1.527968925747835</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.624959212576407</v>
+        <v>1.582404939207793</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.025177072441933</v>
+        <v>0.9725354204821496</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8771929395454023</v>
+        <v>0.8300623801554138</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3465210484082973</v>
+        <v>0.4379453906527106</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7440104231307498</v>
+        <v>0.7731822018410466</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7921309302546409</v>
+        <v>0.8062338049324506</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6145111348984678</v>
+        <v>0.5892895077052587</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.122643157354183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.010454998126377</v>
+        <v>5.010454998126379</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.485554086485375</v>
@@ -1092,7 +1092,7 @@
         <v>-0.3005209826536945</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.663045947306304</v>
+        <v>3.663045947306307</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3392020708828177</v>
+        <v>-0.1902229735966985</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.87263950458703</v>
+        <v>-4.514321675269296</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.187219094177046</v>
+        <v>0.9880815652530888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8275537707196459</v>
+        <v>-0.703641273133657</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.583382634314868</v>
+        <v>-3.223198780405988</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.570600557909367</v>
+        <v>-1.315463697756595</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6611368976306569</v>
+        <v>0.8958974968854148</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.283227112278114</v>
+        <v>-3.128593595089276</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.010437237996466</v>
+        <v>0.956657350093398</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.848152405112907</v>
+        <v>8.955033350920621</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.946979988764167</v>
+        <v>2.051529552844777</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.749350884509564</v>
+        <v>8.853360673152384</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.9159685050447</v>
+        <v>7.879498398272257</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.530347043572855</v>
+        <v>4.581409644079531</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.823057711731035</v>
+        <v>5.992362766850717</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.985635860662787</v>
+        <v>7.125925129140799</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.268540362847282</v>
+        <v>2.0947617751826</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.280681409251963</v>
+        <v>6.325949357906559</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1977019164777925</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.8823610147768461</v>
+        <v>0.8823610147768464</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5114382477121107</v>
@@ -1197,7 +1197,7 @@
         <v>-0.04799716722279741</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5850367828733358</v>
+        <v>0.5850367828733363</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04672249958660052</v>
+        <v>-0.1017012281256245</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6271820043769724</v>
+        <v>-0.5724870746249093</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.130644977827058</v>
+        <v>0.1065701017340182</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.107325303525991</v>
+        <v>-0.09115823808529461</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4165472437699573</v>
+        <v>-0.38742016352443</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1740204080966485</v>
+        <v>-0.1468715628150802</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07560312793273702</v>
+        <v>0.09527706737316192</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4219150438314452</v>
+        <v>-0.3968923542579921</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1105555419276692</v>
+        <v>0.1246371307835271</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.169520864830766</v>
+        <v>2.211187478090285</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5047455797907042</v>
+        <v>0.5521165379286239</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.261272604402672</v>
+        <v>2.279025760243742</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.648015204529514</v>
+        <v>1.611351737443827</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.004061467650788</v>
+        <v>0.9402525076630998</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.220424135760065</v>
+        <v>1.222738620350947</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.449087091087036</v>
+        <v>1.398318664457656</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4858805006277773</v>
+        <v>0.4365834181433775</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.278657207107468</v>
+        <v>1.323210958764754</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.332827253284247</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.468515207516349</v>
+        <v>1.468515207516351</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.347174959334068</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.533106654105551</v>
+        <v>-1.571425430512558</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.467563086407843</v>
+        <v>3.648515684881199</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7080044548482931</v>
+        <v>0.8112013232564876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4836312126781018</v>
+        <v>-0.3928728505484921</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.959266671859835</v>
+        <v>-2.187881016671827</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.636983812916174</v>
+        <v>-1.458906226322626</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0809214413098135</v>
+        <v>-0.1840684902918653</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.694563018939421</v>
+        <v>1.755549829326671</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4077424158857523</v>
+        <v>0.5322254703651227</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.980076026434297</v>
+        <v>4.96619109549438</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.56380813328455</v>
+        <v>11.16930204957039</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.971506395141076</v>
+        <v>7.653744126745285</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.838423676715867</v>
+        <v>6.797832950652849</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.770506680704899</v>
+        <v>4.925774899508768</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.334973420432576</v>
+        <v>4.18722912651126</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.111050447401469</v>
+        <v>4.574786674068492</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.787319029145634</v>
+        <v>6.887960298287088</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.89841273809165</v>
+        <v>4.926600341999541</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>1.618127315610154</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9151536642219961</v>
+        <v>0.9151536642219957</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.5508376929383146</v>
@@ -1402,7 +1402,7 @@
         <v>0.2445356327683915</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2694304866704519</v>
+        <v>0.2694304866704522</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.466640162063616</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2613267172642632</v>
+        <v>-0.274265443292296</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.5542484707270072</v>
+        <v>0.5815925578803119</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.07558345278026414</v>
+        <v>0.1159323499838247</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08885736673498465</v>
+        <v>-0.09656573915121744</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2998406489539401</v>
+        <v>-0.3163525682422361</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2281220060639894</v>
+        <v>-0.2051025912952233</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008840717750121083</v>
+        <v>-0.03444161355894884</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2717360958616198</v>
+        <v>0.280935313355113</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05726245336226217</v>
+        <v>0.07077660987336869</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.765417339002527</v>
+        <v>1.643766628079952</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.83944646840367</v>
+        <v>3.599788886782044</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.523339749549121</v>
+        <v>2.376925770935265</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.818315002230859</v>
+        <v>1.676208559765208</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.216554051058748</v>
+        <v>1.199144206363988</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.156856076893899</v>
+        <v>1.139801548345583</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.28500526731239</v>
+        <v>1.117492437552531</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.685246440707964</v>
+        <v>1.695201307485182</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.266088970363357</v>
+        <v>1.202318442509724</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.6445113575616765</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.019080894656467</v>
+        <v>3.019080894656465</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.461696693160296</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.329035265252571</v>
+        <v>-1.132264858265044</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.882955297561591</v>
+        <v>-3.732067875143637</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.659383828712274</v>
+        <v>-1.904146840089478</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.400763065976494</v>
+        <v>-3.228257354207708</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.134361762575795</v>
+        <v>-6.972335116415207</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.804922338654313</v>
+        <v>-2.723340835872803</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.8462942240351881</v>
+        <v>-0.3979549976771138</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.173287648686306</v>
+        <v>-3.91871416242358</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5214174657812569</v>
+        <v>-0.4048079058251807</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.59730234859396</v>
+        <v>8.944677396482222</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.826707267305354</v>
+        <v>5.275417825639082</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.546047092298335</v>
+        <v>6.629533434706461</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.580004589278023</v>
+        <v>8.819364834872841</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.968130042767851</v>
+        <v>4.638130833820502</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.749379382542126</v>
+        <v>7.837342753709783</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.162155331034911</v>
+        <v>7.398526809243891</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.394358455535348</v>
+        <v>3.348707859402805</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.21806353544579</v>
+        <v>6.131468913339324</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.06705922327847826</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3141251390456402</v>
+        <v>0.3141251390456399</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4540445755147104</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.212727690462258</v>
+        <v>-0.176425476647244</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5380466861628296</v>
+        <v>-0.4848000451591853</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2256314618111943</v>
+        <v>-0.2606183087332079</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2644711285238569</v>
+        <v>-0.2504966455369023</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4991019606030622</v>
+        <v>-0.5327708723227115</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.211699592737891</v>
+        <v>-0.2050713657351256</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.09889388269668066</v>
+        <v>-0.04531315111656272</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4003001352565239</v>
+        <v>-0.4173518668183926</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.07359276518332002</v>
+        <v>-0.0407778873773302</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.290097793045582</v>
+        <v>2.647738230893444</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.382587238521394</v>
+        <v>1.564766185844175</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.082631371440782</v>
+        <v>1.801722868458975</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.450514633100491</v>
+        <v>1.31342866142034</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7932747158435719</v>
+        <v>0.7499268706484583</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.233787929830378</v>
+        <v>1.221541023597808</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.20758430012606</v>
+        <v>1.264133334236831</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5748137605338897</v>
+        <v>0.5833661313248758</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.100182449810623</v>
+        <v>1.125175716659475</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>2.884385098922657</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.043752583848636</v>
+        <v>6.043752583848634</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.248978686116036</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.229532104236417</v>
+        <v>-1.485567345487274</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.827394850080623</v>
+        <v>-2.196760031444538</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5.03727682044234</v>
+        <v>4.459175817234567</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.707572615150835</v>
+        <v>1.654074490055781</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.192702998852624</v>
+        <v>-1.202537868537457</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.342504448758472</v>
+        <v>2.303995385883623</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.32678689670279</v>
+        <v>1.51756431961027</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.5115598364585381</v>
+        <v>-0.4495506996609637</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.906503507392831</v>
+        <v>4.785790136256236</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.507370559787757</v>
+        <v>6.89404629966838</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.898974063188045</v>
+        <v>5.798600782618265</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.97807012636741</v>
+        <v>12.94890312016252</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.28499885887813</v>
+        <v>10.81039694203775</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.09303244476417</v>
+        <v>7.010064611232897</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.416902758627238</v>
+        <v>9.408129374064288</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.159649787214207</v>
+        <v>7.412445717911602</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.249299111364025</v>
+        <v>5.339408360414375</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>10.25634935233023</v>
+        <v>10.10214959479525</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.6849659040491006</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.43523292156488</v>
+        <v>1.435232921564879</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.9228545148788103</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2272041911167685</v>
+        <v>-0.2626481738068683</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3034616018874867</v>
+        <v>-0.3652832314087768</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.6862095676306839</v>
+        <v>0.6254733199329563</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2084092330694995</v>
+        <v>0.2200534416412658</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2387781942916487</v>
+        <v>-0.2779920040872861</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2949310033484914</v>
+        <v>0.2666485906487377</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1901398517454258</v>
+        <v>0.2525411780980149</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1066259079926138</v>
+        <v>-0.09043708878623025</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.7633437991973498</v>
+        <v>0.7601940542143906</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.054941796254888</v>
+        <v>2.140563305537152</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.789174204003432</v>
+        <v>1.761886470400367</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.085718676046113</v>
+        <v>4.230343491121249</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>4.064162988786793</v>
+        <v>4.166918696383418</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.593519571811433</v>
+        <v>2.668014401209446</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.888567996711148</v>
+        <v>3.864022569806842</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.130448971724239</v>
+        <v>2.077763278764281</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.550211890384948</v>
+        <v>1.53118640339883</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.195934552922067</v>
+        <v>2.948668531438949</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>1.165114977357153</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.97996836886316</v>
+        <v>-0.9799683688631627</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.262516980891444</v>
@@ -1948,7 +1948,7 @@
         <v>2.975493761146585</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.000378836588264</v>
+        <v>1.000378836588266</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.162553815741233</v>
+        <v>-1.04680745826892</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.889521357882428</v>
+        <v>1.836044481960974</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.1453089653521125</v>
+        <v>0.1931343090576445</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.236547612355547</v>
+        <v>-2.10775546937447</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.075079437570159</v>
+        <v>-1.850669793311666</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.62017557366807</v>
+        <v>-3.482065831896411</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.7176585939770971</v>
+        <v>-0.9062631912696255</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.7950030868354779</v>
+        <v>0.8490773870839293</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.9764253803061643</v>
+        <v>-1.009006417272939</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.607704444095958</v>
+        <v>4.967924280714527</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>8.066156588801771</v>
+        <v>8.326192373943245</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.990606433636512</v>
+        <v>6.319929763104905</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.927136744019916</v>
+        <v>4.040495042078131</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.425907226239475</v>
+        <v>4.030542896693977</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.388077511011435</v>
+        <v>1.508183438926954</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.427923057145686</v>
+        <v>3.381140246344241</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.18226218047075</v>
+        <v>5.291090944717666</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.843930488245968</v>
+        <v>2.799701647525368</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.1527588139635887</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.128484148482009</v>
+        <v>-0.1284841484820093</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1792237652489819</v>
@@ -2053,7 +2053,7 @@
         <v>0.422393681367363</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.1420112873588042</v>
+        <v>0.1420112873588044</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1475644395607989</v>
+        <v>-0.1440530584602444</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2155254242631244</v>
+        <v>0.2322441293004451</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.002947838158048981</v>
+        <v>0.02115117658284956</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2497141821978511</v>
+        <v>-0.2397499981068765</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2478666108111295</v>
+        <v>-0.2131042654785849</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3842420231191973</v>
+        <v>-0.367927201833177</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.08592311010193135</v>
+        <v>-0.1052621666477965</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.08305129986519696</v>
+        <v>0.1106719178370099</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1185807150079828</v>
+        <v>-0.1217074050190335</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9088301598801668</v>
+        <v>0.9685783790956889</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.574054411406478</v>
+        <v>1.689941184284787</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.16400846470411</v>
+        <v>1.275857769551985</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6714233178512941</v>
+        <v>0.6460658059591589</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7035720268803678</v>
+        <v>0.6538151785188353</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2231915771755223</v>
+        <v>0.2529019355667343</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5741913710011091</v>
+        <v>0.5662910855086917</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.8340381755873373</v>
+        <v>0.8992642157295911</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4821723439768212</v>
+        <v>0.4585666410737872</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>2.781676101528684</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1.015828849976906</v>
+        <v>1.015828849976905</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.6989375177462398</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.907291280690638</v>
+        <v>-2.688735148442559</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.07252649972612181</v>
+        <v>0.02715974681930816</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.283165569883369</v>
+        <v>-1.659944941550562</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.21848830419671</v>
+        <v>-3.190803529510195</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.6129756941586039</v>
+        <v>-0.4377615765676175</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.674308910446353</v>
+        <v>-2.470540026710198</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.301945339725199</v>
+        <v>-2.398953558740418</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.7443041921879813</v>
+        <v>0.5615876640136473</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.268712807378034</v>
+        <v>-1.331622393017689</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.174638657303295</v>
+        <v>2.36066398452406</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5.598689388032197</v>
+        <v>5.664882841962065</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.485260913424695</v>
+        <v>3.520940250731591</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.879550142703754</v>
+        <v>1.808784897907742</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.29749485479724</v>
+        <v>5.332348165677157</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.914126667648279</v>
+        <v>2.094567657285602</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.247082113426996</v>
+        <v>1.226104524288743</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.766241682597208</v>
+        <v>4.51169298706105</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.996518755554807</v>
+        <v>2.010456747113879</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.4172144473019155</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.1523608273312424</v>
+        <v>0.1523608273312422</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.1060606572511918</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3737164401140212</v>
+        <v>-0.3481417661128242</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.009649200217974174</v>
+        <v>-0.00576725293147808</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1714640604948921</v>
+        <v>-0.2123285879341468</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4027169603106665</v>
+        <v>-0.415367435312875</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.08547406096634519</v>
+        <v>-0.05368992864310237</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3353009738500415</v>
+        <v>-0.3057227509501584</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.30884988744332</v>
+        <v>-0.3292401338638243</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.07951442513197647</v>
+        <v>0.07615663816275184</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1667998688502382</v>
+        <v>-0.1773558135708833</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4044625676511591</v>
+        <v>0.4597440192912474</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.062223922669307</v>
+        <v>1.040306617189086</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6563987252171126</v>
+        <v>0.635434181823881</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3460639847409531</v>
+        <v>0.332763244585862</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.9750840859836313</v>
+        <v>0.9947398024850994</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3731691927967576</v>
+        <v>0.4037140583961101</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2155095360355789</v>
+        <v>0.2216743112452253</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.812421901351436</v>
+        <v>0.7869442664878946</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3578407339109793</v>
+        <v>0.3597142158126576</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>1.600010586562366</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.037145271065479</v>
+        <v>1.037145271065477</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>1.851824315046574</v>
@@ -2376,7 +2376,7 @@
         <v>2.342393501092925</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>2.313462686277222</v>
+        <v>2.313462686277219</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.6346959897826815</v>
+        <v>0.6440121690937087</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1.84247453584475</v>
+        <v>1.849561866638437</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.479261638277217</v>
+        <v>2.46993381368183</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.5269813037839912</v>
+        <v>0.6234248437499652</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.2262735100247774</v>
+        <v>0.3503233556986473</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.1684302578259277</v>
+        <v>-0.09592007756880366</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.9438654975031537</v>
+        <v>0.9691309039613875</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.452612509181451</v>
+        <v>1.441803923122271</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.514666467394973</v>
+        <v>1.449255546886718</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.05239284392564</v>
+        <v>3.102450959175874</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.284196642613304</v>
+        <v>4.272014007756864</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.819350179986999</v>
+        <v>4.803946558243284</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.057369716342327</v>
+        <v>3.221437021615489</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.913608384281827</v>
+        <v>3.008817944876721</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.041427378893651</v>
+        <v>2.201550703369332</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.689664846293482</v>
+        <v>2.778405122019749</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.221228449739606</v>
+        <v>3.305905843296692</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>3.171218180166267</v>
+        <v>3.064980387989733</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.235846534415988</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1528784371310091</v>
+        <v>0.1528784371310089</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.2971979077441873</v>
@@ -2481,7 +2481,7 @@
         <v>0.3759289917417951</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.3712859067781196</v>
+        <v>0.3712859067781191</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1063822967042156</v>
+        <v>0.09812053102309215</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2889217717488108</v>
+        <v>0.2940200111323942</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.3887547857002217</v>
+        <v>0.3892833255508732</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.07104775063655817</v>
+        <v>0.08370692528417392</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.03239918004900396</v>
+        <v>0.04468052808114682</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.0239570365269187</v>
+        <v>-0.01348261651801903</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1429946596117509</v>
+        <v>0.149772664213655</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2156608753368496</v>
+        <v>0.2134611706941733</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2251365778862977</v>
+        <v>0.2086171616882716</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.6173338799121382</v>
+        <v>0.5958768254975338</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.825833330553661</v>
+        <v>0.838443532069176</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.9339683701810552</v>
+        <v>0.9224201214654291</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5057983026005841</v>
+        <v>0.5205773214692685</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4717665143633442</v>
+        <v>0.496925963057538</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.3310521560570366</v>
+        <v>0.3580490749583012</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.461470708885237</v>
+        <v>0.4818651547436584</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.5478788582766675</v>
+        <v>0.5595150828873962</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.5497068792695342</v>
+        <v>0.5334627439366735</v>
       </c>
     </row>
     <row r="58">
